--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,109 +1772,109 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>505</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>506</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3468,109 +3468,109 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>544</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>545</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3627,109 +3627,109 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>547</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>550</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="1" t="s">
         <v>146</v>
       </c>
     </row>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,56 +2461,56 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>520</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3194,59 +3194,59 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>538</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3303,59 +3303,59 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>541</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="notes_fields_table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,165 +1498,165 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>500</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>501</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>502</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1716,59 +1716,59 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>504</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -1420,7 +1420,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,59 +1660,59 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>503</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <v>-1</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1878,59 +1878,59 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>507</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2040,56 +2040,56 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>511</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -719,7 +719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,6 +905,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1066,9 +1072,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1114,7 +1121,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1419,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,6 +1455,7 @@
     <col min="14" max="14" width="18.42578125" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="36.85546875" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1660,59 +1677,59 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>503</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>-1</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1934,56 +1951,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>508</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2093,112 +2110,112 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>512</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>-1</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>513</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2352,59 +2369,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>517</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
         <v>-1</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2620,59 +2637,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>523</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <v>-1</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2826,59 +2843,59 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>527</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
         <v>-1</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3138,59 +3155,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>537</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
         <v>-1</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3412,59 +3429,59 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>543</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
         <v>-1</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4160,115 +4177,115 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>570</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
         <v>-1</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R52" t="s">
+      <c r="R52" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>582</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
         <v>-1</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="Q53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R53" t="s">
+      <c r="R53" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="notes_fields_table" sheetId="1" r:id="rId1"/>
@@ -1121,16 +1121,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1435,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,47 +2210,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>514</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>64</v>
       </c>
     </row>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,56 +2254,56 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>515</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="189">
   <si>
     <t>MARC tag</t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>588 -- SOURCE OF DESCRIPTION NOTE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Obsolete-not mapping</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -719,7 +728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -901,13 +910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,10 +1087,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1121,7 +1137,24 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA9D08E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF808080"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1135,10 +1168,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R58" totalsRowShown="0">
-  <autoFilter ref="A1:R58"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S58" totalsRowShown="0">
+  <autoFilter ref="A1:S58"/>
+  <tableColumns count="19">
     <tableColumn id="1" name="MARC tag"/>
+    <tableColumn id="19" name="STATUS"/>
     <tableColumn id="2" name="Field name"/>
     <tableColumn id="3" name="concat"/>
     <tableColumn id="4" name="$3 label possible"/>
@@ -1424,595 +1458,622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="36.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>500</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>501</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>502</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>503</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>-1</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>504</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>505</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>506</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>507</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>508</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>510</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -2042,395 +2103,416 @@
         <v>54</v>
       </c>
       <c r="P11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>511</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>512</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>-1</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>513</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>514</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>515</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>516</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>517</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
         <v>-1</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>518</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2439,275 +2521,287 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>73</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>74</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>520</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>521</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>522</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>523</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
         <v>-1</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>524</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>88</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2716,40 +2810,40 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" t="s">
-        <v>32</v>
+      <c r="N24">
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>32</v>
       </c>
       <c r="P24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>525</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>90</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
@@ -2760,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2769,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2777,40 +2871,40 @@
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25" t="s">
-        <v>21</v>
+      <c r="N25">
+        <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>21</v>
       </c>
       <c r="P25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="s">
         <v>22</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>526</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2819,92 +2913,95 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>527</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
         <v>-1</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="S27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>530</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2922,42 +3019,42 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" t="s">
-        <v>32</v>
+      <c r="N28">
+        <v>0</v>
       </c>
       <c r="O28" t="s">
         <v>32</v>
       </c>
       <c r="P28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>533</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>100</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2966,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2975,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2983,34 +3080,34 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
         <v>102</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>103</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>534</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>104</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3019,60 +3116,60 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>535</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>107</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3080,32 +3177,32 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
         <v>109</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>32</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>38</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>536</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>111</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
         <v>0</v>
       </c>
@@ -3116,163 +3213,166 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
-        <v>112</v>
+      <c r="N32">
+        <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>112</v>
       </c>
       <c r="P32" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q32" t="s">
         <v>22</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>537</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
         <v>-1</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="Q33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="S33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>538</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="s">
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="Q34" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>540</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>121</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3281,16 +3381,16 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3298,93 +3398,96 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>123</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>32</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>38</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>541</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="s">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="Q36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="R36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>542</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>130</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>54</v>
@@ -3414,419 +3517,431 @@
         <v>54</v>
       </c>
       <c r="P37" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q37" t="s">
         <v>33</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>543</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
         <v>-1</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="Q38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="R38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="S38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>544</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="Q39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>545</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>1</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="Q40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="R40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>546</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>547</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="Q42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="R42" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>550</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>552</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>555</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>149</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>150</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -3834,87 +3949,90 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
         <v>123</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>32</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>38</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>556</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>1</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="Q46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>561</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>155</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>156</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3923,211 +4041,211 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
         <v>157</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>21</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>23</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>158</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>562</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="Q48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>563</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="Q49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="R49" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>565</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>567</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>169</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>170</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
       <c r="E51">
         <v>0</v>
       </c>
@@ -4135,19 +4253,19 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -4155,146 +4273,152 @@
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
         <v>37</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>32</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>38</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>570</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
         <v>-1</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="O52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="P52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="Q52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="R52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="S52" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>582</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
         <v>-1</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="O53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="P53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="Q53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="R53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="S53" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>583</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>176</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>177</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4312,42 +4436,42 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
-      <c r="N54" t="s">
-        <v>32</v>
+      <c r="N54">
+        <v>0</v>
       </c>
       <c r="O54" t="s">
         <v>32</v>
       </c>
       <c r="P54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" t="s">
         <v>38</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>584</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>178</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>179</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4365,42 +4489,42 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
-      <c r="N55" t="s">
-        <v>32</v>
+      <c r="N55">
+        <v>0</v>
       </c>
       <c r="O55" t="s">
         <v>32</v>
       </c>
       <c r="P55" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" t="s">
         <v>38</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>585</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>180</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>181</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4409,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -4418,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -4426,85 +4550,88 @@
       <c r="M56">
         <v>0</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
         <v>165</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>21</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>22</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>586</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>588</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>184</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>185</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
       <c r="E58">
         <v>0</v>
       </c>
@@ -4524,24 +4651,27 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
-      <c r="N58" t="s">
-        <v>32</v>
+      <c r="N58">
+        <v>0</v>
       </c>
       <c r="O58" t="s">
         <v>32</v>
       </c>
       <c r="P58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" t="s">
         <v>38</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>33</v>
       </c>
     </row>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="192">
   <si>
     <t>MARC tag</t>
   </si>
@@ -586,6 +586,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Not mapping</t>
+  </si>
+  <si>
+    <t>Pending metadata feedback</t>
+  </si>
+  <si>
+    <t>Pending PO decisions</t>
   </si>
 </sst>
 </file>
@@ -1087,11 +1096,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1137,20 +1147,164 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="20">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF808080"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1168,28 +1322,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S58" totalsRowShown="0">
-  <autoFilter ref="A1:S58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S58" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:S58">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" name="MARC tag"/>
-    <tableColumn id="19" name="STATUS"/>
-    <tableColumn id="2" name="Field name"/>
-    <tableColumn id="3" name="concat"/>
-    <tableColumn id="4" name="$3 label possible"/>
-    <tableColumn id="5" name="$i label possible?"/>
-    <tableColumn id="6" name="MARC tag label"/>
-    <tableColumn id="7" name="Indicator label"/>
-    <tableColumn id="8" name="Display"/>
-    <tableColumn id="9" name="Index"/>
-    <tableColumn id="10" name="Simple processing"/>
-    <tableColumn id="11" name="Complex processing"/>
-    <tableColumn id="12" name="Separate field"/>
-    <tableColumn id="13" name="Obsolete"/>
-    <tableColumn id="14" name="Display elements"/>
-    <tableColumn id="15" name="Index elements"/>
-    <tableColumn id="16" name="display/index different"/>
-    <tableColumn id="17" name="Notes"/>
-    <tableColumn id="18" name="mapped?"/>
+    <tableColumn id="1" name="MARC tag" dataDxfId="19"/>
+    <tableColumn id="19" name="STATUS" dataDxfId="18"/>
+    <tableColumn id="2" name="Field name" dataDxfId="17"/>
+    <tableColumn id="3" name="concat" dataDxfId="16"/>
+    <tableColumn id="4" name="$3 label possible" dataDxfId="15"/>
+    <tableColumn id="5" name="$i label possible?" dataDxfId="14"/>
+    <tableColumn id="6" name="MARC tag label" dataDxfId="13"/>
+    <tableColumn id="7" name="Indicator label" dataDxfId="12"/>
+    <tableColumn id="8" name="Display" dataDxfId="11"/>
+    <tableColumn id="9" name="Index" dataDxfId="10"/>
+    <tableColumn id="10" name="Simple processing" dataDxfId="9"/>
+    <tableColumn id="11" name="Complex processing" dataDxfId="8"/>
+    <tableColumn id="12" name="Separate field" dataDxfId="7"/>
+    <tableColumn id="13" name="Obsolete" dataDxfId="6"/>
+    <tableColumn id="14" name="Display elements" dataDxfId="5"/>
+    <tableColumn id="15" name="Index elements" dataDxfId="4"/>
+    <tableColumn id="16" name="display/index different" dataDxfId="3"/>
+    <tableColumn id="17" name="Notes" dataDxfId="2"/>
+    <tableColumn id="18" name="mapped?" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1461,7 +1619,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,3137 +1701,3234 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>500</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>501</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>502</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>503</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>-1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>504</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>505</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>506</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>507</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>508</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="s">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>510</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>511</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="s">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>512</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
         <v>-1</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>513</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>514</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>515</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="s">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>516</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="s">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>517</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
         <v>-1</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>518</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>520</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2" t="s">
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>521</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2" t="s">
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>522</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2" t="s">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>523</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
         <v>-1</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>524</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>525</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>526</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>527</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <v>-1</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>530</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>533</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>534</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>535</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>536</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>537</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
         <v>-1</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>538</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3" t="s">
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>540</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>541</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2" t="s">
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="P36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Q36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R36" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="S36" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>542</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>543</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
         <v>-1</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>544</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2" t="s">
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R39" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>545</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
-        <v>1</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3" t="s">
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="P40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="Q40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>546</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2" t="s">
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="S41" s="4"/>
     </row>
     <row r="42" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>547</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3" t="s">
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="R42" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>550</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>1</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2" t="s">
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>1</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="P43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R43" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>552</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="S44" s="4"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>555</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>556</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>1</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2" t="s">
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="P46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="Q46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="R46" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="S46" s="4"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>561</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="S47" t="s">
+      <c r="S47" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>562</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="Q48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="R48" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="S48" s="4"/>
     </row>
     <row r="49" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>563</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>565</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="M50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="Q50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="R50" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="S50" s="4"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>567</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>570</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1">
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
         <v>-1</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P52" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="Q52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="R52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="S52" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>582</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1">
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
         <v>-1</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="O53" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="P53" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="Q53" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="R53" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S53" s="1" t="s">
+      <c r="S53" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>583</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R54" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="S54" s="4"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>584</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="S55" s="4"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>585</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0</v>
+      </c>
+      <c r="O56" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R56" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>586</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57" s="2" t="s">
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1</v>
+      </c>
+      <c r="J57" s="4">
+        <v>1</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="4">
+        <v>0</v>
+      </c>
+      <c r="O57" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="P57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="Q57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="R57" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>588</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0</v>
+      </c>
+      <c r="O58" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R58" t="s">
+      <c r="R58" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="S58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="192">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4710,7 +4710,9 @@
       <c r="A55" s="4">
         <v>584</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="C55" s="4" t="s">
         <v>178</v>
       </c>
@@ -4765,7 +4767,9 @@
       <c r="A56" s="4">
         <v>585</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C56" s="4" t="s">
         <v>180</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="192">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4254,7 +4254,9 @@
       <c r="A47" s="4">
         <v>561</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C47" s="4" t="s">
         <v>155</v>
       </c>
@@ -4311,7 +4313,9 @@
       <c r="A48" s="4">
         <v>562</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C48" s="4" t="s">
         <v>159</v>
       </c>
@@ -4362,7 +4366,7 @@
       </c>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>563</v>
       </c>
@@ -4706,7 +4710,7 @@
       </c>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>584</v>
       </c>
@@ -4763,7 +4767,7 @@
       </c>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>585</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="192">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,7 +3861,9 @@
       <c r="A40" s="4">
         <v>545</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C40" s="4" t="s">
         <v>136</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="192">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,7 +3574,9 @@
       <c r="A35" s="4">
         <v>540</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="C35" s="4" t="s">
         <v>121</v>
       </c>
@@ -3857,7 +3859,7 @@
       </c>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>545</v>
       </c>
@@ -4252,7 +4254,7 @@
       </c>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>561</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>562</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="192">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,7 +3346,9 @@
       <c r="A31" s="4">
         <v>535</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>107</v>
       </c>
@@ -3397,11 +3399,13 @@
       </c>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>536</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C32" s="4" t="s">
         <v>110</v>
       </c>
@@ -3570,7 +3574,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>540</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="192">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,7 +3022,9 @@
       <c r="A25" s="4">
         <v>525</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>89</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="192">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,7 +3244,9 @@
       <c r="A29" s="4">
         <v>533</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>100</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="193">
   <si>
     <t>MARC tag</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>Pending PO decisions</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1622,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,11 +2679,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>518</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>71</v>
       </c>
@@ -3018,7 +3023,7 @@
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>525</v>
       </c>
@@ -3240,7 +3245,7 @@
       </c>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>533</v>
       </c>
@@ -3346,7 +3351,7 @@
       </c>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>535</v>
       </c>
@@ -4150,11 +4155,13 @@
       </c>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>555</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>149</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="193">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,7 +3084,9 @@
       <c r="A26" s="4">
         <v>526</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>92</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="193">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,7 +3308,9 @@
       <c r="A30" s="4">
         <v>534</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>104</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="193">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,7 +4507,9 @@
       <c r="A51" s="4">
         <v>567</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C51" s="4" t="s">
         <v>169</v>
       </c>

--- a/argot/working_docs/notes_fields_table.xlsx
+++ b/argot/working_docs/notes_fields_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="193">
   <si>
     <t>MARC tag</t>
   </si>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3994,7 +3994,9 @@
       <c r="A42" s="4">
         <v>547</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>141</v>
       </c>
